--- a/app/0100_Base/MainControl/doc/MainControl.xlsx
+++ b/app/0100_Base/MainControl/doc/MainControl.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4C48D7-9A4D-48EE-9B1E-0DEA309CA64C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F682B85-D82C-4ABC-9115-13D1B05D5C40}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,8 +453,8 @@
     <t>base_isready()</t>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/07/20 14:19:26
-; * pssgEditor version : 0.7.0.b0081ca2ae62b99c38b127566c8ee8eedac0f9a6
+    <t xml:space="preserve">; The setting was created automatically. 2018/08/03 9:47:31
+; * pssgEditor version : 0.8.0.26aef6b743ebec1f242ef0bfbac88333d42a172f
 psggfile=@@@
 MainControl.psgg
 @@@
@@ -1329,7 +1329,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>11</v>
